--- a/data/NMF-AP-1988.xlsx
+++ b/data/NMF-AP-1988.xlsx
@@ -21,6 +21,338 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
   <si>
+    <t>United_States_presidential_election,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> mecham impeach trial conceal misuse dealership jury april election milstead</t>
+  </si>
+  <si>
+    <t>Evan_Mecham</t>
+  </si>
+  <si>
+    <t>Impeachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nicaragua contra sandinista azcona rebel incursion 82nd region airborne palmerola</t>
+  </si>
+  <si>
+    <t>Operation_Golden_Pheasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grammy mcferrin jackson winner al watley emperor howard richard bob</t>
+  </si>
+  <si>
+    <t>Bobby_McFerrin</t>
+  </si>
+  <si>
+    <t>30th_Annual_Grammy_Awards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jackson jesse candidate primary massachusetts nomination delegate support poll voter</t>
+  </si>
+  <si>
+    <t>Jesse_Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> augusto pinochet allende hindu referendum sikh election siege radical voter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Augusto_Pinochet</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> arafat plo yasser israel terrorism gaza resolution declaration territory shultz</t>
+  </si>
+  <si>
+    <t>Palestine_Liberation_Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> march 1986 meeting urge april 26 june february states conference</t>
+  </si>
+  <si>
+    <t>2015_in_aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eritrea mengistu mariam tigre longo relief meeting councilmen aug support</t>
+  </si>
+  <si>
+    <t>Mengistu_Haile_Mariam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1986 states april summit aug bill oct june march sept</t>
+  </si>
+  <si>
+    <t>United_States_men's_national_soccer_team_results_(1980–89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hirohito emperor imperial maeda monarch kenji hemorrhage pint akihito sept</t>
+  </si>
+  <si>
+    <t>Controversies_regarding_the_role_of_the_Emperor_of_Japan</t>
+  </si>
+  <si>
+    <t>Hirohito</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sickness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> chirac jacque france melanesian caledonia ouvea election kanak gendarme pon</t>
+  </si>
+  <si>
+    <t>Kanak_people</t>
+  </si>
+  <si>
+    <t>Ouvéa_cave_hostage_taking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lech walesa gdansk striker shipyard nowa huta szczecin czeslaw kiszczak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>History_of_Solidarity</t>
+  </si>
+  <si>
+    <t>Gdańsk shipyard strike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> trial jury 1986 june snow lyakhov support mohmand hortense gabel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hortense_Gabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> astrology 081 regan astrologer noriega clinch montana panama horoscope manuel</t>
+  </si>
+  <si>
+    <t>Joan_Quigley</t>
+  </si>
+  <si>
+    <t>Factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is WP Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is real event?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best WP page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> noriega panama manuel antonio delvalle arturo ere drug indict traffick</t>
+  </si>
+  <si>
+    <t>Manuel_Noriega</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indictment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> claude leslie tonton macoute bertrand 1986 franck romain february election</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roger_Lafontant</t>
+  </si>
+  <si>
+    <t>St._Jean_Bosco_massacre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> contract earnings june october march august september meeting july april</t>
+  </si>
+  <si>
+    <t>2014_in_aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> super gore gephardt wisconsin albert primary richard illinois jackson jesse</t>
+  </si>
+  <si>
+    <t>Al_Gore_presidential_campaign,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic_Party_presidential_primaries,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> primary gephardt dole robertson pat gore rep super delegate missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contractor pentagon consultant procure paisley bribery melvyn contract probe navy</t>
+  </si>
+  <si>
+    <t>Operation_Ill_Wind</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> drought crop corn rain farmer dry weather soybean midwest barge</t>
+  </si>
+  <si>
+    <t>2012–15_North_American_drought</t>
+  </si>
+  <si>
+    <t>1988–89_North_American_drought</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> iran 290 navy vincenne airliner airbus warship missile fighter frigate</t>
+  </si>
+  <si>
+    <t>Iran_Air_Flight_655</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salina gortari election clouthier candidate michoacan manuel elect voter poll</t>
+  </si>
+  <si>
+    <t>History_of_Roman_Catholicism_in_Mexico</t>
+  </si>
+  <si>
+    <t>Mexican_general_election,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> iraq cease iran cuellar tehran baghdad javier perez resolution velayati</t>
+  </si>
+  <si>
+    <t>Iran–Iraq_War</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elect transition sununu brady election appointments iii rep meeting jan</t>
+  </si>
+  <si>
+    <t>Third-party_members_of_the_United_States_House_of_Representatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quayle bentsen dan mate lloyd ticket indiana nominee debate nomination</t>
+  </si>
+  <si>
+    <t>Dan_Quayle</t>
+  </si>
+  <si>
+    <t>United_States_vice-presidential_debate,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> yellowstone forest park acre blaze blazes montana flame char evacuate</t>
+  </si>
+  <si>
+    <t>Yellowstone_fires_of_1988</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> games olympic yankee naval vessel sailor 1962 jury radical fish</t>
+  </si>
+  <si>
+    <t>Impressment_(Nova_Scotia)</t>
+  </si>
+  <si>
+    <t>1988_Summer_Olympics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hurricane flood gilbert water evacuate rains rain weather drown longitude</t>
+  </si>
+  <si>
+    <t>Hurricane_Gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maung rangoon burma ne sein lwin aung 1962 gyi multiparty</t>
+  </si>
+  <si>
+    <t>8888_Uprising</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poll election voter candidate quayle debate dan ads negative massachusetts</t>
+  </si>
+  <si>
+    <t>Chilean_national_plebiscite,_1988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nicaragua contra sandinista rebel aid cease states truce sapoa support</t>
+  </si>
+  <si>
+    <t>History_of_Nicaragua</t>
+  </si>
+  <si>
+    <t>Cease fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> meese edwin indict iii mckay wedtech wallach 1986 iraq jury</t>
+  </si>
+  <si>
+    <t>Wedtech_scandal</t>
+  </si>
+  <si>
+    <t>Wedtech_scandal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resignation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> support bill 1986 states contract carolina rep subcommittee urge richard</t>
+  </si>
+  <si>
+    <t>Ryan's_Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hijack kuwait airway mashhad sabah 747 iran al algiers emir</t>
+  </si>
+  <si>
+    <t>Kuwait_Airways_Flight_422</t>
+  </si>
+  <si>
     <t xml:space="preserve"> earthquake armenia quake relief disaster leninakan moscow spitak dec aid</t>
   </si>
   <si>
@@ -152,345 +484,15 @@
   </si>
   <si>
     <t>War_of_the_Camps</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> contractor pentagon consultant procure paisley bribery melvyn contract probe navy</t>
-  </si>
-  <si>
-    <t>Operation_Ill_Wind</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> drought crop corn rain farmer dry weather soybean midwest barge</t>
-  </si>
-  <si>
-    <t>2012–15_North_American_drought</t>
-  </si>
-  <si>
-    <t>1988–89_North_American_drought</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> iran 290 navy vincenne airliner airbus warship missile fighter frigate</t>
-  </si>
-  <si>
-    <t>Iran_Air_Flight_655</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salina gortari election clouthier candidate michoacan manuel elect voter poll</t>
-  </si>
-  <si>
-    <t>History_of_Roman_Catholicism_in_Mexico</t>
-  </si>
-  <si>
-    <t>Mexican_general_election,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> iraq cease iran cuellar tehran baghdad javier perez resolution velayati</t>
-  </si>
-  <si>
-    <t>Iran–Iraq_War</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elect transition sununu brady election appointments iii rep meeting jan</t>
-  </si>
-  <si>
-    <t>Third-party_members_of_the_United_States_House_of_Representatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quayle bentsen dan mate lloyd ticket indiana nominee debate nomination</t>
-  </si>
-  <si>
-    <t>Dan_Quayle</t>
-  </si>
-  <si>
-    <t>United_States_vice-presidential_debate,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> yellowstone forest park acre blaze blazes montana flame char evacuate</t>
-  </si>
-  <si>
-    <t>Yellowstone_fires_of_1988</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> games olympic yankee naval vessel sailor 1962 jury radical fish</t>
-  </si>
-  <si>
-    <t>Impressment_(Nova_Scotia)</t>
-  </si>
-  <si>
-    <t>1988_Summer_Olympics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hurricane flood gilbert water evacuate rains rain weather drown longitude</t>
-  </si>
-  <si>
-    <t>Hurricane_Gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maung rangoon burma ne sein lwin aung 1962 gyi multiparty</t>
-  </si>
-  <si>
-    <t>8888_Uprising</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poll election voter candidate quayle debate dan ads negative massachusetts</t>
-  </si>
-  <si>
-    <t>Chilean_national_plebiscite,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> nicaragua contra sandinista rebel aid cease states truce sapoa support</t>
-  </si>
-  <si>
-    <t>History_of_Nicaragua</t>
-  </si>
-  <si>
-    <t>Cease fire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> meese edwin indict iii mckay wedtech wallach 1986 iraq jury</t>
-  </si>
-  <si>
-    <t>Wedtech_scandal</t>
-  </si>
-  <si>
-    <t>Wedtech_scandal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resignation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> support bill 1986 states contract carolina rep subcommittee urge richard</t>
-  </si>
-  <si>
-    <t>Ryan's_Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hijack kuwait airway mashhad sabah 747 iran al algiers emir</t>
-  </si>
-  <si>
-    <t>Kuwait_Airways_Flight_422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arafat plo yasser israel terrorism gaza resolution declaration territory shultz</t>
-  </si>
-  <si>
-    <t>Palestine_Liberation_Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> march 1986 meeting urge april 26 june february states conference</t>
-  </si>
-  <si>
-    <t>2015_in_aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eritrea mengistu mariam tigre longo relief meeting councilmen aug support</t>
-  </si>
-  <si>
-    <t>Mengistu_Haile_Mariam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1986 states april summit aug bill oct june march sept</t>
-  </si>
-  <si>
-    <t>United_States_men's_national_soccer_team_results_(1980–89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hirohito emperor imperial maeda monarch kenji hemorrhage pint akihito sept</t>
-  </si>
-  <si>
-    <t>Controversies_regarding_the_role_of_the_Emperor_of_Japan</t>
-  </si>
-  <si>
-    <t>Hirohito</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sickness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> chirac jacque france melanesian caledonia ouvea election kanak gendarme pon</t>
-  </si>
-  <si>
-    <t>Kanak_people</t>
-  </si>
-  <si>
-    <t>Ouvéa_cave_hostage_taking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> lech walesa gdansk striker shipyard nowa huta szczecin czeslaw kiszczak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>History_of_Solidarity</t>
-  </si>
-  <si>
-    <t>Gdańsk shipyard strike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> trial jury 1986 june snow lyakhov support mohmand hortense gabel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hortense_Gabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> astrology 081 regan astrologer noriega clinch montana panama horoscope manuel</t>
-  </si>
-  <si>
-    <t>Joan_Quigley</t>
-  </si>
-  <si>
-    <t>Factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is WP Event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is real event?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best WP page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> noriega panama manuel antonio delvalle arturo ere drug indict traffick</t>
-  </si>
-  <si>
-    <t>Manuel_Noriega</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indictment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> claude leslie tonton macoute bertrand 1986 franck romain february election</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roger_Lafontant</t>
-  </si>
-  <si>
-    <t>St._Jean_Bosco_massacre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> contract earnings june october march august september meeting july april</t>
-  </si>
-  <si>
-    <t>2014_in_aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> super gore gephardt wisconsin albert primary richard illinois jackson jesse</t>
-  </si>
-  <si>
-    <t>Al_Gore_presidential_campaign,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic_Party_presidential_primaries,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> primary gephardt dole robertson pat gore rep super delegate missouri</t>
-  </si>
-  <si>
-    <t>United_States_presidential_election,_1988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> mecham impeach trial conceal misuse dealership jury april election milstead</t>
-  </si>
-  <si>
-    <t>Evan_Mecham</t>
-  </si>
-  <si>
-    <t>Impeachment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> nicaragua contra sandinista azcona rebel incursion 82nd region airborne palmerola</t>
-  </si>
-  <si>
-    <t>Operation_Golden_Pheasant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grammy mcferrin jackson winner al watley emperor howard richard bob</t>
-  </si>
-  <si>
-    <t>Bobby_McFerrin</t>
-  </si>
-  <si>
-    <t>30th_Annual_Grammy_Awards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> jackson jesse candidate primary massachusetts nomination delegate support poll voter</t>
-  </si>
-  <si>
-    <t>Jesse_Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> augusto pinochet allende hindu referendum sikh election siege radical voter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Augusto_Pinochet</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -868,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -887,1177 +889,1177 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2">
-        <v>30741</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>30785</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>30716</v>
+        <v>30776</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
-        <v>30745</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>31026</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="2">
-        <v>30935</v>
+        <v>31022</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>30745</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>30792</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
-        <v>30749</v>
+        <v>30862</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>47</v>
+      </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2">
-        <v>30749</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>30990</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="s">
-        <v>123</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>30756</v>
+        <v>30786</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30775</v>
-      </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>30760</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>30774</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="4">
-        <v>40618</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30959</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2">
-        <v>30762</v>
+        <v>30741</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
-        <v>30742</v>
+        <v>30716</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2">
-        <v>30773</v>
+        <v>30929</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
-        <v>30748</v>
+        <v>30932</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2">
-        <v>30774</v>
+        <v>30871</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
-        <v>30959</v>
+        <v>30868</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>30774</v>
+        <v>30787</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="2">
-        <v>30765</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>30777</v>
+        <v>30797</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="2">
-        <v>30867</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2">
-        <v>30779</v>
+        <v>30968</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30821</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
-        <v>30785</v>
+        <v>30939</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>30776</v>
+        <v>30937</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2">
-        <v>30786</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>30913</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30959</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2">
-        <v>30787</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>31038</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>31036</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
       <c r="D18" s="2">
-        <v>30792</v>
+        <v>30941</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30901</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D19" s="2">
-        <v>30797</v>
+        <v>31002</v>
       </c>
       <c r="E19" s="3"/>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30986</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>30799</v>
+        <v>30756</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30775</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
-        <v>30804</v>
+        <v>30869</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G21" s="2">
-        <v>30793</v>
+        <v>30865</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
-        <v>30807</v>
+        <v>30745</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="2">
-        <v>30803</v>
+        <v>30935</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>30812</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>30804</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30793</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>30816</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>30773</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30748</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>30824</v>
+        <v>30812</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="2">
-        <v>30830</v>
-      </c>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2">
-        <v>30832</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>30966</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="2">
-        <v>30820</v>
+        <v>30993</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>30861</v>
+        <v>30760</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="G27" s="4">
+        <v>40618</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2">
-        <v>30862</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>30977</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="G28" s="2">
+        <v>30961</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2">
-        <v>30869</v>
+        <v>30972</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G29" s="2">
-        <v>30865</v>
+        <v>30953</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>30871</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>30762</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G30" s="2">
-        <v>30868</v>
+        <v>30742</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2">
-        <v>30896</v>
-      </c>
-      <c r="E31" s="3" t="s">
+        <v>30977</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="G31" s="2">
+        <v>30961</v>
+      </c>
+      <c r="H31" t="s">
         <v>114</v>
-      </c>
-      <c r="F31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="2">
-        <v>30913</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2">
-        <v>30910</v>
+        <v>30824</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30830</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30749</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30989</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D35" s="2">
+        <v>30749</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="2">
-        <v>30913</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="2">
-        <v>30959</v>
-      </c>
-      <c r="H33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2">
-        <v>30929</v>
-      </c>
-      <c r="E34" s="3" t="s">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="2">
+        <v>30779</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="2">
+        <v>31013</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="2">
-        <v>30932</v>
-      </c>
-      <c r="H34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
+      <c r="G37" s="2">
+        <v>30862</v>
+      </c>
+      <c r="H37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30799</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2">
         <v>30934</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="G35" s="2">
+      <c r="E39" s="3"/>
+      <c r="G39" s="2">
         <v>30941</v>
       </c>
-      <c r="H35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2">
-        <v>30939</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2">
+        <v>30774</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="2">
+        <v>30765</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2">
+        <v>31016</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="2">
+        <v>31001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="2">
+        <v>30832</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="G43" s="2">
+        <v>30820</v>
+      </c>
+      <c r="H43" t="s">
         <v>138</v>
       </c>
-      <c r="F36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="2">
-        <v>30937</v>
-      </c>
-      <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2">
-        <v>30941</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="2">
-        <v>30901</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2">
-        <v>30966</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="2">
-        <v>30993</v>
-      </c>
-      <c r="H38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <v>30968</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="2">
-        <v>30821</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2">
-        <v>30972</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="2">
-        <v>30953</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2">
-        <v>30977</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="2">
-        <v>30961</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2">
-        <v>30977</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="G42" s="2">
-        <v>30961</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2">
-        <v>30989</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
-        <v>30990</v>
+        <v>30816</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2">
-        <v>31000</v>
+        <v>31009</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="G45" s="2">
+        <v>31026</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
-        <v>31002</v>
+        <v>30807</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" t="s">
-        <v>42</v>
-      </c>
       <c r="G46" s="2">
-        <v>30986</v>
+        <v>30803</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2">
-        <v>31009</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>30861</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="2">
-        <v>31026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2">
-        <v>31013</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>30777</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2">
-        <v>30862</v>
+        <v>30867</v>
       </c>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2">
-        <v>31016</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>30910</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="2">
-        <v>31001</v>
-      </c>
-      <c r="H49" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2">
-        <v>31026</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="2">
-        <v>31022</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1</v>
-      </c>
+        <v>30745</v>
+      </c>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2">
-        <v>31038</v>
+        <v>30896</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G51" s="2">
-        <v>31036</v>
+        <v>30913</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2081,9 +2083,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I51">
+    <sortCondition ref="A3:A51"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
